--- a/public/files/OrgGuestsImportFormat.xlsx
+++ b/public/files/OrgGuestsImportFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sujin\Documents\teespace-platform\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B2D1BB-CF67-4A41-B4B8-C304010C1E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1E9FF3-603F-4547-BE32-CAF45300E3DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45255" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{1E849398-5304-4947-9162-CBB4069A6458}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E849398-5304-4947-9162-CBB4069A6458}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,24 +48,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>borikim@tmax.co.kr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>qwer1234!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>김보리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>휴대폰 번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gildong_hong@company.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,27 +487,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C1DC62A9-13C3-4CE5-8163-D212E8CE7698}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1D8AF0FF-1547-44A2-AC5F-2EBBF4089BDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
